--- a/static/files/volunteer.xlsx
+++ b/static/files/volunteer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -82,7 +82,16 @@
     <t>PreferredTiming</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -514,47 +523,69 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s"/>
-      <c r="W2" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
